--- a/ECE 2020/dataMapasECEJovenes.xlsx
+++ b/ECE 2020/dataMapasECEJovenes.xlsx
@@ -1,26 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chiara Zamora\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BFE6EE85-08E7-4202-BC78-1F146F53426A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-165" windowWidth="19425" windowHeight="10485" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="dataMapasECE" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-  </extLst>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">dataMapasECE!$A$1:$C$1</definedName>
+  </definedNames>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -195,7 +187,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
@@ -699,11 +691,10 @@
     <cellStyle name="60% - Énfasis4" xfId="32" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis5" xfId="36" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis6" xfId="40" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Buena" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Énfasis1" xfId="17" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Énfasis2" xfId="21" builtinId="33" customBuiltin="1"/>
@@ -715,13 +706,14 @@
     <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="41" xr:uid="{4A78E733-71AA-439B-8038-7ECAA81465D9}"/>
-    <cellStyle name="Normal 4" xfId="43" xr:uid="{C2B38E71-6F55-4BF9-BED6-BF76A67F65D4}"/>
-    <cellStyle name="Notas 2" xfId="42" xr:uid="{54526A6D-FDFE-43C0-8EEB-FDF84FD60D4C}"/>
+    <cellStyle name="Normal 2" xfId="41"/>
+    <cellStyle name="Normal 4" xfId="43"/>
+    <cellStyle name="Notas 2" xfId="42"/>
     <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Texto explicativo" xfId="15" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="16" builtinId="25" customBuiltin="1"/>
@@ -994,27 +986,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1025,7 +1017,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1033,10 +1025,10 @@
         <v>5</v>
       </c>
       <c r="C2" s="1">
-        <v>0.10204081632653061</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1044,10 +1036,10 @@
         <v>7</v>
       </c>
       <c r="C3" s="1">
-        <v>8.6419753086419748E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+        <v>8.9743589743589744E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1055,10 +1047,10 @@
         <v>9</v>
       </c>
       <c r="C4" s="1">
-        <v>9.7560975609756101E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+        <v>0.10810810810810811</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1066,10 +1058,10 @@
         <v>11</v>
       </c>
       <c r="C5" s="1">
-        <v>8.9285714285714288E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+        <v>8.4905660377358486E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1077,10 +1069,10 @@
         <v>13</v>
       </c>
       <c r="C6" s="1">
-        <v>8.5106382978723402E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+        <v>2.2222222222222223E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1088,98 +1080,98 @@
         <v>15</v>
       </c>
       <c r="C7" s="1">
-        <v>7.0707070707070704E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+        <v>5.9405940594059403E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.13513513513513514</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="1">
-        <v>0.15853658536585366</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="C9" s="1">
+        <v>0.10112359550561797</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>18</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="1">
-        <v>9.2783505154639179E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="C10" s="1">
+        <v>0.10869565217391304</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>20</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="1">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="C11" s="1">
+        <v>8.6956521739130432E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>23</v>
-      </c>
-      <c r="C11" s="1">
-        <v>8.5106382978723402E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
       </c>
       <c r="C12" s="1">
         <v>2.6315789473684209E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="1">
+        <v>9.3023255813953487E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>26</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="1">
-        <v>0.10588235294117647</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="C14" s="1">
+        <v>7.586206896551724E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>28</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="1">
-        <v>8.5106382978723402E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" t="s">
-        <v>3</v>
-      </c>
       <c r="C15" s="1">
-        <v>0.10869565217391304</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+        <v>0.11627906976744186</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -1187,21 +1179,21 @@
         <v>51</v>
       </c>
       <c r="C16" s="1">
-        <v>6.7796610169491525E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+        <v>5.3375196232339092E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="C17" s="1">
-        <v>5.3333333333333337E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+        <v>5.7142857142857141E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -1209,10 +1201,10 @@
         <v>31</v>
       </c>
       <c r="C18" s="1">
-        <v>8.4337349397590355E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+        <v>8.6206896551724144E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -1220,10 +1212,10 @@
         <v>33</v>
       </c>
       <c r="C19" s="1">
-        <v>0.10810810810810811</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+        <v>0.12121212121212122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -1231,10 +1223,10 @@
         <v>35</v>
       </c>
       <c r="C20" s="1">
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+        <v>7.6923076923076927E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -1242,10 +1234,10 @@
         <v>37</v>
       </c>
       <c r="C21" s="1">
-        <v>0.13461538461538461</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -1253,10 +1245,10 @@
         <v>39</v>
       </c>
       <c r="C22" s="1">
-        <v>0.10084033613445378</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+        <v>8.2568807339449546E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -1264,10 +1256,10 @@
         <v>41</v>
       </c>
       <c r="C23" s="1">
-        <v>0.10752688172043011</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+        <v>7.8651685393258425E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -1275,10 +1267,10 @@
         <v>43</v>
       </c>
       <c r="C24" s="1">
-        <v>6.7796610169491525E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+        <v>5.2631578947368418E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>44</v>
       </c>
@@ -1289,7 +1281,7 @@
         <v>9.4339622641509441E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>46</v>
       </c>
@@ -1297,10 +1289,10 @@
         <v>47</v>
       </c>
       <c r="C26" s="1">
-        <v>8.6956521739130432E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+        <v>6.5217391304347824E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>48</v>
       </c>
@@ -1308,10 +1300,15 @@
         <v>49</v>
       </c>
       <c r="C27" s="1">
-        <v>0.10810810810810811</v>
+        <v>5.2631578947368418E-2</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C1">
+    <sortState ref="A2:C27">
+      <sortCondition ref="B1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ECE 2020/dataMapasECEJovenes.xlsx
+++ b/ECE 2020/dataMapasECEJovenes.xlsx
@@ -986,7 +986,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -997,7 +997,7 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1058,7 +1058,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="1">
-        <v>8.4905660377358486E-2</v>
+        <v>9.4339622641509441E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -1069,7 +1069,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="1">
-        <v>2.2222222222222223E-2</v>
+        <v>8.8888888888888892E-2</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -1080,7 +1080,7 @@
         <v>15</v>
       </c>
       <c r="C7" s="1">
-        <v>5.9405940594059403E-2</v>
+        <v>6.9306930693069313E-2</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -1091,7 +1091,7 @@
         <v>53</v>
       </c>
       <c r="C8" s="1">
-        <v>0.13513513513513514</v>
+        <v>0.16216216216216217</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -1146,7 +1146,7 @@
         <v>25</v>
       </c>
       <c r="C13" s="1">
-        <v>9.3023255813953487E-2</v>
+        <v>0.10465116279069768</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -1157,7 +1157,7 @@
         <v>27</v>
       </c>
       <c r="C14" s="1">
-        <v>7.586206896551724E-2</v>
+        <v>8.2758620689655171E-2</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -1179,7 +1179,7 @@
         <v>51</v>
       </c>
       <c r="C16" s="1">
-        <v>5.3375196232339092E-2</v>
+        <v>7.2213500784929358E-2</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -1201,7 +1201,7 @@
         <v>31</v>
       </c>
       <c r="C18" s="1">
-        <v>8.6206896551724144E-2</v>
+        <v>0.1206896551724138</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -1223,7 +1223,7 @@
         <v>35</v>
       </c>
       <c r="C20" s="1">
-        <v>7.6923076923076927E-2</v>
+        <v>0.12820512820512819</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -1245,7 +1245,7 @@
         <v>39</v>
       </c>
       <c r="C22" s="1">
-        <v>8.2568807339449546E-2</v>
+        <v>9.1743119266055051E-2</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -1256,7 +1256,7 @@
         <v>41</v>
       </c>
       <c r="C23" s="1">
-        <v>7.8651685393258425E-2</v>
+        <v>0.11235955056179775</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -1267,7 +1267,7 @@
         <v>43</v>
       </c>
       <c r="C24" s="1">
-        <v>5.2631578947368418E-2</v>
+        <v>7.0175438596491224E-2</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -1289,7 +1289,7 @@
         <v>47</v>
       </c>
       <c r="C26" s="1">
-        <v>6.5217391304347824E-2</v>
+        <v>8.6956521739130432E-2</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -1300,7 +1300,7 @@
         <v>49</v>
       </c>
       <c r="C27" s="1">
-        <v>5.2631578947368418E-2</v>
+        <v>0.10526315789473684</v>
       </c>
     </row>
   </sheetData>
